--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1212">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3645,6 +3645,9 @@
   </si>
   <si>
     <t xml:space="preserve">21774.0703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21491.310546875</t>
   </si>
 </sst>
 </file>
@@ -35262,6 +35265,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>45695.6041666667</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>21491.310546875</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>21491.310546875</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>21491.310546875</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>21491.310546875</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1215">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3654,6 +3654,9 @@
   </si>
   <si>
     <t xml:space="preserve">21693.51953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21719.259765625</t>
   </si>
 </sst>
 </file>
@@ -35349,6 +35352,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>45700.6041666667</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>21719.259765625</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>21719.259765625</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>21719.259765625</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>21719.259765625</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1216">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3657,6 +3657,9 @@
   </si>
   <si>
     <t xml:space="preserve">21719.259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22030.7109375</t>
   </si>
 </sst>
 </file>
@@ -35378,6 +35381,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>45701.6041666667</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>22030.7109375</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>22030.7109375</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>22030.7109375</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>22030.7109375</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1217">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3660,6 +3660,9 @@
   </si>
   <si>
     <t xml:space="preserve">22030.7109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22114.689453125</t>
   </si>
 </sst>
 </file>
@@ -35407,6 +35410,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>45702.6041666667</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>22114.689453125</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>22114.689453125</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>22114.689453125</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>22114.689453125</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3663,6 +3663,9 @@
   </si>
   <si>
     <t xml:space="preserve">22114.689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22164.609375</t>
   </si>
 </sst>
 </file>
@@ -35436,6 +35439,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>45706.6041666667</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>22164.609375</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>22164.609375</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>22164.609375</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>22164.609375</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1219">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3666,6 +3666,9 @@
   </si>
   <si>
     <t xml:space="preserve">22164.609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22175.599609375</t>
   </si>
 </sst>
 </file>
@@ -35465,6 +35468,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>45707.6041666667</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>22175.599609375</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>22175.599609375</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>22175.599609375</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>22175.599609375</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1220">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3669,6 +3669,9 @@
   </si>
   <si>
     <t xml:space="preserve">22175.599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22068.060546875</t>
   </si>
 </sst>
 </file>
@@ -35494,6 +35497,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>45708.6041666667</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>22068.060546875</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>22068.060546875</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>22068.060546875</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>22068.060546875</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1221">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3672,6 +3672,9 @@
   </si>
   <si>
     <t xml:space="preserve">22068.060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21614.080078125</t>
   </si>
 </sst>
 </file>
@@ -35523,6 +35526,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>45709.6041666667</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>21614.080078125</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>21614.080078125</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>21614.080078125</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>21614.080078125</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1222">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3675,6 +3675,9 @@
   </si>
   <si>
     <t xml:space="preserve">21614.080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21352.080078125</t>
   </si>
 </sst>
 </file>
@@ -35552,6 +35555,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>45712.6041666667</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>21352.080078125</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>21352.080078125</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>21352.080078125</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>21352.080078125</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1223">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3678,6 +3678,9 @@
   </si>
   <si>
     <t xml:space="preserve">21352.080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21087.25</t>
   </si>
 </sst>
 </file>
@@ -35581,6 +35584,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>45713.6041666667</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>21087.25</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>21087.25</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>21087.25</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>21087.25</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3681,6 +3681,9 @@
   </si>
   <si>
     <t xml:space="preserve">21087.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21132.919921875</t>
   </si>
 </sst>
 </file>
@@ -35610,6 +35613,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>45714.6041666667</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>21132.919921875</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>21132.919921875</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>21132.919921875</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>21132.919921875</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1225">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3684,6 +3684,9 @@
   </si>
   <si>
     <t xml:space="preserve">21132.919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20550.94921875</t>
   </si>
 </sst>
 </file>
@@ -35639,6 +35642,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>45715.6041666667</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>20550.94921875</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>20550.94921875</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>20550.94921875</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>20550.94921875</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1226">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3687,6 +3687,9 @@
   </si>
   <si>
     <t xml:space="preserve">20550.94921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20884.41015625</t>
   </si>
 </sst>
 </file>
@@ -35668,6 +35671,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>45716.6041666667</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>20884.41015625</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>20884.41015625</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>20884.41015625</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>20884.41015625</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1227">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3690,6 +3690,9 @@
   </si>
   <si>
     <t xml:space="preserve">20884.41015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20425.580078125</t>
   </si>
 </sst>
 </file>
@@ -35697,6 +35700,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>45719.6041666667</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>20425.580078125</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>20425.580078125</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>20425.580078125</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>20425.580078125</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1228">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3693,6 +3693,9 @@
   </si>
   <si>
     <t xml:space="preserve">20425.580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20352.529296875</t>
   </si>
 </sst>
 </file>
@@ -35726,6 +35729,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>45720.6041666667</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>20352.529296875</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>20352.529296875</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>20352.529296875</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>20352.529296875</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1229">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3696,6 +3696,9 @@
   </si>
   <si>
     <t xml:space="preserve">20352.529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20628.4609375</t>
   </si>
 </sst>
 </file>
@@ -35755,6 +35758,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>45721.6041666667</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>20628.4609375</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>20628.4609375</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>20628.4609375</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>20628.4609375</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1230">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3699,6 +3699,9 @@
   </si>
   <si>
     <t xml:space="preserve">20628.4609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20052.630859375</t>
   </si>
 </sst>
 </file>
@@ -35784,6 +35787,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>45722.6041666667</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>20052.630859375</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>20052.630859375</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>20052.630859375</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>20052.630859375</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1231">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3702,6 +3702,9 @@
   </si>
   <si>
     <t xml:space="preserve">20052.630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20201.369140625</t>
   </si>
 </sst>
 </file>
@@ -35813,6 +35816,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>45723.6041666667</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>20201.369140625</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>20201.369140625</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>20201.369140625</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>20201.369140625</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1232">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3705,6 +3705,9 @@
   </si>
   <si>
     <t xml:space="preserve">20201.369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19430.94921875</t>
   </si>
 </sst>
 </file>
@@ -35842,6 +35845,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>45726.5625</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>19430.94921875</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>19430.94921875</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>19430.94921875</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>19430.94921875</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1233">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3708,6 +3708,9 @@
   </si>
   <si>
     <t xml:space="preserve">19430.94921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19376.9609375</t>
   </si>
 </sst>
 </file>
@@ -35871,6 +35874,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>45727.5625</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>19376.9609375</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>19376.9609375</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>19376.9609375</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>19376.9609375</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3711,6 +3711,9 @@
   </si>
   <si>
     <t xml:space="preserve">19376.9609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19596.01953125</t>
   </si>
 </sst>
 </file>
@@ -35900,6 +35903,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>45728.5625</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>19596.01953125</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>19596.01953125</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>19596.01953125</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>19596.01953125</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="1235">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3714,6 +3714,9 @@
   </si>
   <si>
     <t xml:space="preserve">19596.01953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19225.48046875</t>
   </si>
 </sst>
 </file>
@@ -35929,6 +35932,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>45729.5625</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>19225.48046875</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>19225.48046875</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>19225.48046875</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>19225.48046875</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1236">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3717,6 +3717,9 @@
   </si>
   <si>
     <t xml:space="preserve">19225.48046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19704.640625</t>
   </si>
 </sst>
 </file>
@@ -35958,6 +35961,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>45730.5625</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>19704.640625</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>19704.640625</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>19704.640625</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>19704.640625</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3720,6 +3720,9 @@
   </si>
   <si>
     <t xml:space="preserve">19704.640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19812.240234375</t>
   </si>
 </sst>
 </file>
@@ -35987,6 +35990,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>45733.5625</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>19812.240234375</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>19812.240234375</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>19812.240234375</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>19812.240234375</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1238">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3723,6 +3723,9 @@
   </si>
   <si>
     <t xml:space="preserve">19812.240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19483.359375</t>
   </si>
 </sst>
 </file>
@@ -36016,6 +36019,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>45734.5625</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>19483.359375</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>19483.359375</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>19483.359375</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>19483.359375</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1239">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3726,6 +3726,9 @@
   </si>
   <si>
     <t xml:space="preserve">19483.359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19736.66015625</t>
   </si>
 </sst>
 </file>
@@ -36045,6 +36048,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>45735.5625</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>19736.66015625</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>19736.66015625</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>19736.66015625</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>19736.66015625</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1240">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3729,6 +3729,9 @@
   </si>
   <si>
     <t xml:space="preserve">19736.66015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19677.609375</t>
   </si>
 </sst>
 </file>
@@ -36074,6 +36077,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>45736.5625</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>19677.609375</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>19677.609375</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>19677.609375</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>19677.609375</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1241">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3732,6 +3732,9 @@
   </si>
   <si>
     <t xml:space="preserve">19677.609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19753.970703125</t>
   </si>
 </sst>
 </file>
@@ -36103,6 +36106,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>45737.5625</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>19753.970703125</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>19753.970703125</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>19753.970703125</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>19753.970703125</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1242">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3735,6 +3735,9 @@
   </si>
   <si>
     <t xml:space="preserve">19753.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180.439453125</t>
   </si>
 </sst>
 </file>
@@ -36132,6 +36135,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>45740.5625</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>20180.439453125</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>20180.439453125</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>20180.439453125</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>20180.439453125</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1243">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3738,6 +3738,9 @@
   </si>
   <si>
     <t xml:space="preserve">20180.439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20287.830078125</t>
   </si>
 </sst>
 </file>
@@ -36161,6 +36164,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>45741.5625</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>20287.830078125</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>20287.830078125</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>20287.830078125</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>20287.830078125</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1244">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3741,6 +3741,9 @@
   </si>
   <si>
     <t xml:space="preserve">20287.830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19916.990234375</t>
   </si>
 </sst>
 </file>
@@ -36190,6 +36193,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>45742.5625</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>19916.990234375</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>19916.990234375</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>19916.990234375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>19916.990234375</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1245">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3744,6 +3744,9 @@
   </si>
   <si>
     <t xml:space="preserve">19916.990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19798.619140625</t>
   </si>
 </sst>
 </file>
@@ -36219,6 +36222,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>45743.5625</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>19798.619140625</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>19798.619140625</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>19798.619140625</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>19798.619140625</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3747,6 +3747,9 @@
   </si>
   <si>
     <t xml:space="preserve">19798.619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19281.400390625</t>
   </si>
 </sst>
 </file>
@@ -36248,6 +36251,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>45744.5625</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>19281.400390625</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>19281.400390625</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>19281.400390625</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>19281.400390625</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1247">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3750,6 +3750,9 @@
   </si>
   <si>
     <t xml:space="preserve">19281.400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19278.44921875</t>
   </si>
 </sst>
 </file>
@@ -36277,6 +36280,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>45747.5625</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>19278.44921875</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>19278.44921875</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>19278.44921875</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>19278.44921875</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1248">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3753,6 +3753,9 @@
   </si>
   <si>
     <t xml:space="preserve">19278.44921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19436.419921875</t>
   </si>
 </sst>
 </file>
@@ -36306,6 +36309,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>45748.5625</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>19436.419921875</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>19436.419921875</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>19436.419921875</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>19436.419921875</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1249">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3756,6 +3756,9 @@
   </si>
   <si>
     <t xml:space="preserve">19436.419921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19581.779296875</t>
   </si>
 </sst>
 </file>
@@ -36335,6 +36338,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>45749.5625</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>19581.779296875</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>19581.779296875</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>19581.779296875</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>19581.779296875</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1250">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3759,6 +3759,9 @@
   </si>
   <si>
     <t xml:space="preserve">19581.779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18521.48046875</t>
   </si>
 </sst>
 </file>
@@ -36364,6 +36367,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>45750.5625</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>18521.48046875</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>18521.48046875</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>18521.48046875</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>18521.48046875</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1251">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3762,6 +3762,9 @@
   </si>
   <si>
     <t xml:space="preserve">18521.48046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17397.69921875</t>
   </si>
 </sst>
 </file>
@@ -36393,6 +36396,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>45751.5625</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>17397.69921875</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>17397.69921875</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>17397.69921875</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>17397.69921875</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3765,6 +3765,9 @@
   </si>
   <si>
     <t xml:space="preserve">17397.69921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17430.6796875</t>
   </si>
 </sst>
 </file>
@@ -36422,6 +36425,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>45754.5625</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>17430.6796875</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>17430.6796875</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>17430.6796875</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>17430.6796875</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3768,6 +3768,9 @@
   </si>
   <si>
     <t xml:space="preserve">17430.6796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17090.400390625</t>
   </si>
 </sst>
 </file>
@@ -36451,6 +36454,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>45755.5625</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>17090.400390625</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>17090.400390625</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>17090.400390625</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>17090.400390625</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1254">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3771,6 +3771,9 @@
   </si>
   <si>
     <t xml:space="preserve">17090.400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19145.060546875</t>
   </si>
 </sst>
 </file>
@@ -36480,6 +36483,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>45756.5625</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>19145.060546875</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>19145.060546875</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>19145.060546875</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>19145.060546875</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1255">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3774,6 +3774,9 @@
   </si>
   <si>
     <t xml:space="preserve">19145.060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18343.5703125</t>
   </si>
 </sst>
 </file>
@@ -36509,6 +36512,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>45757.5625</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>18343.5703125</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>18343.5703125</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>18343.5703125</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>18343.5703125</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1256">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3777,6 +3777,9 @@
   </si>
   <si>
     <t xml:space="preserve">18343.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18690.05078125</t>
   </si>
 </sst>
 </file>
@@ -36538,6 +36541,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>45758.5625</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>18690.05078125</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>18690.05078125</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>18690.05078125</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>18690.05078125</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1257">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3780,6 +3780,9 @@
   </si>
   <si>
     <t xml:space="preserve">18690.05078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18830.23046875</t>
   </si>
 </sst>
 </file>
@@ -36567,6 +36570,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>45762.5625</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>18830.23046875</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>18830.23046875</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>18830.23046875</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>18830.23046875</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="1258">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3783,6 +3783,9 @@
   </si>
   <si>
     <t xml:space="preserve">18830.23046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18257.640625</t>
   </si>
 </sst>
 </file>
@@ -36596,6 +36599,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>45763.5625</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>18257.640625</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>18257.640625</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>18257.640625</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>18257.640625</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1259">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3786,6 +3786,9 @@
   </si>
   <si>
     <t xml:space="preserve">18257.640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18258.08984375</t>
   </si>
 </sst>
 </file>
@@ -36625,6 +36628,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>45764.5625</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>18258.08984375</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>18258.08984375</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>18258.08984375</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>18258.08984375</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1260">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3789,6 +3789,9 @@
   </si>
   <si>
     <t xml:space="preserve">18258.08984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17808.30078125</t>
   </si>
 </sst>
 </file>
@@ -36654,6 +36657,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>45768.5625</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>17808.30078125</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>17808.30078125</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>17808.30078125</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>17808.30078125</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1261">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3792,6 +3792,9 @@
   </si>
   <si>
     <t xml:space="preserve">17808.30078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18276.41015625</t>
   </si>
 </sst>
 </file>
@@ -36683,6 +36686,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>45769.5625</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>18276.41015625</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>18276.41015625</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>18276.41015625</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>18276.41015625</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1262">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3795,6 +3795,9 @@
   </si>
   <si>
     <t xml:space="preserve">18276.41015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18693.259765625</t>
   </si>
 </sst>
 </file>
@@ -36712,6 +36715,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>45770.5625</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>18693.259765625</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>18693.259765625</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>18693.259765625</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>18693.259765625</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1263">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3798,6 +3798,9 @@
   </si>
   <si>
     <t xml:space="preserve">18693.259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19214.400390625</t>
   </si>
 </sst>
 </file>
@@ -36741,6 +36744,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>45771.5625</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>19214.400390625</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>19214.400390625</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>19214.400390625</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>19214.400390625</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1264">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3801,6 +3801,9 @@
   </si>
   <si>
     <t xml:space="preserve">19214.400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19432.560546875</t>
   </si>
 </sst>
 </file>
@@ -36770,6 +36773,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>45772.5625</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>19432.560546875</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>19432.560546875</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>19432.560546875</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>19432.560546875</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1265">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3804,6 +3804,9 @@
   </si>
   <si>
     <t xml:space="preserve">19432.560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19427.2890625</t>
   </si>
 </sst>
 </file>
@@ -36799,6 +36802,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>45775.5625</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>19427.2890625</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>19427.2890625</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>19427.2890625</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>19427.2890625</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1266">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3807,6 +3807,9 @@
   </si>
   <si>
     <t xml:space="preserve">19427.2890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19544.94921875</t>
   </si>
 </sst>
 </file>
@@ -36828,6 +36831,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>45776.5625</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>19544.94921875</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>19544.94921875</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>19544.94921875</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>19544.94921875</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1267">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3810,6 +3810,9 @@
   </si>
   <si>
     <t xml:space="preserve">19544.94921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19571.01953125</t>
   </si>
 </sst>
 </file>
@@ -36857,6 +36860,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>45777.5625</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>19571.01953125</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>19571.01953125</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>19571.01953125</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>19571.01953125</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1268">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3813,6 +3813,9 @@
   </si>
   <si>
     <t xml:space="preserve">19571.01953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19786.7109375</t>
   </si>
 </sst>
 </file>
@@ -36886,6 +36889,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>45778.5625</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>19786.7109375</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>19786.7109375</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>19786.7109375</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>19786.7109375</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3816,6 +3816,9 @@
   </si>
   <si>
     <t xml:space="preserve">19786.7109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20102.609375</t>
   </si>
 </sst>
 </file>
@@ -36915,6 +36918,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>45779.5625</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>20102.609375</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>20102.609375</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>20102.609375</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>20102.609375</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1270">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3819,6 +3819,9 @@
   </si>
   <si>
     <t xml:space="preserve">20102.609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19967.939453125</t>
   </si>
 </sst>
 </file>
@@ -36944,6 +36947,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>45782.5625</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>19967.939453125</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>19967.939453125</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>19967.939453125</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>19967.939453125</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1271">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3822,6 +3822,9 @@
   </si>
   <si>
     <t xml:space="preserve">19967.939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19791.33984375</t>
   </si>
 </sst>
 </file>
@@ -36973,6 +36976,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>45783.5625</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>19791.33984375</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>19791.33984375</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>19791.33984375</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>19791.33984375</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1272">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3825,6 +3825,9 @@
   </si>
   <si>
     <t xml:space="preserve">19791.33984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19867.970703125</t>
   </si>
 </sst>
 </file>
@@ -37002,6 +37005,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>45784.5625</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>19867.970703125</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>19867.970703125</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>19867.970703125</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>19867.970703125</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1273">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3828,6 +3828,9 @@
   </si>
   <si>
     <t xml:space="preserve">19867.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20063.5703125</t>
   </si>
 </sst>
 </file>
@@ -37031,6 +37034,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>45785.5625</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>20063.5703125</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>20063.5703125</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>20063.5703125</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>20063.5703125</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1274">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3831,6 +3831,9 @@
   </si>
   <si>
     <t xml:space="preserve">20063.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20061.44921875</t>
   </si>
 </sst>
 </file>
@@ -37060,6 +37063,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>45786.5625</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>20061.44921875</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>20061.44921875</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>20061.44921875</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>20061.44921875</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1275">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3834,6 +3834,9 @@
   </si>
   <si>
     <t xml:space="preserve">20061.44921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20868.150390625</t>
   </si>
 </sst>
 </file>
@@ -37089,6 +37092,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>45789.5625</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>20868.150390625</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>20868.150390625</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>20868.150390625</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>20868.150390625</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1276">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3837,6 +3837,9 @@
   </si>
   <si>
     <t xml:space="preserve">20868.150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21197.69921875</t>
   </si>
 </sst>
 </file>
@@ -37118,6 +37121,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>45790.5625</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>21197.69921875</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>21197.69921875</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>21197.69921875</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>21197.69921875</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1277">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3840,6 +3840,9 @@
   </si>
   <si>
     <t xml:space="preserve">21197.69921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21319.2109375</t>
   </si>
 </sst>
 </file>
@@ -37147,6 +37150,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>45791.5625</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>21319.2109375</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>21319.2109375</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>21319.2109375</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>21319.2109375</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1278">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3843,6 +3843,9 @@
   </si>
   <si>
     <t xml:space="preserve">21319.2109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21335.8203125</t>
   </si>
 </sst>
 </file>
@@ -37176,6 +37179,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>45792.5625</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>21335.8203125</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>21335.8203125</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>21335.8203125</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>21335.8203125</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1279">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3846,6 +3846,9 @@
   </si>
   <si>
     <t xml:space="preserve">21335.8203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21427.939453125</t>
   </si>
 </sst>
 </file>
@@ -37205,6 +37208,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>21427.939453125</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>21427.939453125</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>21427.939453125</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>21427.939453125</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1280">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3849,6 +3849,9 @@
   </si>
   <si>
     <t xml:space="preserve">21427.939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21447.05078125</t>
   </si>
 </sst>
 </file>
@@ -37234,6 +37237,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>45796.5625</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>21447.05078125</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>21447.05078125</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>21447.05078125</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>21447.05078125</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1281">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3852,6 +3852,9 @@
   </si>
   <si>
     <t xml:space="preserve">21447.05078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21367.369140625</t>
   </si>
 </sst>
 </file>
@@ -37263,6 +37266,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>45797.5625</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>21367.369140625</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>21367.369140625</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>21367.369140625</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>21367.369140625</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1282">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3855,6 +3855,9 @@
   </si>
   <si>
     <t xml:space="preserve">21367.369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21080.359375</t>
   </si>
 </sst>
 </file>
@@ -37292,6 +37295,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>45798.5625</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>21080.359375</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>21080.359375</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>21080.359375</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>21080.359375</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1283">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3858,6 +3858,9 @@
   </si>
   <si>
     <t xml:space="preserve">21080.359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21112.470703125</t>
   </si>
 </sst>
 </file>
@@ -37321,6 +37324,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>45799.5625</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>21112.470703125</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>21112.470703125</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>21112.470703125</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>21112.470703125</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1284">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3861,6 +3861,9 @@
   </si>
   <si>
     <t xml:space="preserve">21112.470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20915.650390625</t>
   </si>
 </sst>
 </file>
@@ -37350,6 +37353,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>45800.5625</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>20915.650390625</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>20915.650390625</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>20915.650390625</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>20915.650390625</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1285">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3864,6 +3864,9 @@
   </si>
   <si>
     <t xml:space="preserve">20915.650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21414.990234375</t>
   </si>
 </sst>
 </file>
@@ -37379,6 +37382,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>45804.5625</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>21414.990234375</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>21414.990234375</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>21414.990234375</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>21414.990234375</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1286">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3867,6 +3867,9 @@
   </si>
   <si>
     <t xml:space="preserve">21414.990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21318.169921875</t>
   </si>
 </sst>
 </file>
@@ -37408,6 +37411,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>45805.5625</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>21318.169921875</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>21318.169921875</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>21318.169921875</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>21318.169921875</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3870,6 +3870,9 @@
   </si>
   <si>
     <t xml:space="preserve">21318.169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21363.94921875</t>
   </si>
 </sst>
 </file>
@@ -37437,6 +37440,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>45806.5625</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>21363.94921875</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>21363.94921875</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>21363.94921875</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>21363.94921875</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1288">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3873,6 +3873,9 @@
   </si>
   <si>
     <t xml:space="preserve">21363.94921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21340.990234375</t>
   </si>
 </sst>
 </file>
@@ -37466,6 +37469,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>45807.5625</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>21340.990234375</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>21340.990234375</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>21340.990234375</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>21340.990234375</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1289">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3876,6 +3876,9 @@
   </si>
   <si>
     <t xml:space="preserve">21340.990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21491.75</t>
   </si>
 </sst>
 </file>
@@ -37495,6 +37498,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>45810.5625</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>21491.75</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>21491.75</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>21491.75</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>21491.75</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1290">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3879,6 +3879,9 @@
   </si>
   <si>
     <t xml:space="preserve">21491.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21662.580078125</t>
   </si>
 </sst>
 </file>
@@ -37524,6 +37527,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>45811.5625</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>21662.580078125</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>21662.580078125</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>21662.580078125</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>21662.580078125</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1291">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3882,6 +3882,9 @@
   </si>
   <si>
     <t xml:space="preserve">21662.580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21721.919921875</t>
   </si>
 </sst>
 </file>
@@ -37553,6 +37556,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>45812.5625</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>21721.919921875</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>21721.919921875</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>21721.919921875</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>21721.919921875</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1293">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3885,6 +3885,12 @@
   </si>
   <si>
     <t xml:space="preserve">21721.919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21547.4296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21761.7890625</t>
   </si>
 </sst>
 </file>
@@ -37582,6 +37588,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>45813.5625</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>21547.4296875</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>21547.4296875</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>21547.4296875</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>21547.4296875</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>45814.5625</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>21761.7890625</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>21761.7890625</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>21761.7890625</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>21761.7890625</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1294">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3891,6 +3891,9 @@
   </si>
   <si>
     <t xml:space="preserve">21761.7890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21797.869140625</t>
   </si>
 </sst>
 </file>
@@ -37640,6 +37643,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>45817.5625</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>21797.869140625</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>21797.869140625</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>21797.869140625</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>21797.869140625</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1295">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3894,6 +3894,9 @@
   </si>
   <si>
     <t xml:space="preserve">21797.869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21941.919921875</t>
   </si>
 </sst>
 </file>
@@ -37669,6 +37672,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>45818.5625</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>21941.919921875</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>21941.919921875</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>21941.919921875</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>21941.919921875</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1298">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3897,6 +3897,15 @@
   </si>
   <si>
     <t xml:space="preserve">21941.919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21860.80078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21913.3203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21631.0390625</t>
   </si>
 </sst>
 </file>
@@ -37698,6 +37707,84 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>45819.5625</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>21860.80078125</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>21860.80078125</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>21860.80078125</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>21860.80078125</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>45820.5625</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>21913.3203125</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>21913.3203125</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>21913.3203125</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>21913.3203125</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>45821.5625</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>21631.0390625</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>21631.0390625</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>21631.0390625</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>21631.0390625</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1299">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3906,6 +3906,9 @@
   </si>
   <si>
     <t xml:space="preserve">21631.0390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21937.5703125</t>
   </si>
 </sst>
 </file>
@@ -37785,6 +37788,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>45824.5625</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>21937.5703125</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>21937.5703125</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>21937.5703125</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>21937.5703125</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1300">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3909,6 +3909,9 @@
   </si>
   <si>
     <t xml:space="preserve">21937.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21719.080078125</t>
   </si>
 </sst>
 </file>
@@ -37814,6 +37817,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>45825.5625</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>21719.080078125</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>21719.080078125</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>21719.080078125</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>21719.080078125</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1301">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3912,6 +3912,9 @@
   </si>
   <si>
     <t xml:space="preserve">21719.080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21719.689453125</t>
   </si>
 </sst>
 </file>
@@ -37843,6 +37846,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>45826.5625</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>21719.689453125</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>21719.689453125</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>21719.689453125</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>21719.689453125</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3915,6 +3915,9 @@
   </si>
   <si>
     <t xml:space="preserve">21719.689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21626.390625</t>
   </si>
 </sst>
 </file>
@@ -37872,6 +37875,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>45828.5625</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>21626.390625</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>21626.390625</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>21626.390625</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>21626.390625</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1303">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3918,6 +3918,9 @@
   </si>
   <si>
     <t xml:space="preserve">21626.390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21856.330078125</t>
   </si>
 </sst>
 </file>
@@ -37901,6 +37904,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>45831.5625</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>21856.330078125</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>21856.330078125</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>21856.330078125</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>21856.330078125</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1304">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3921,6 +3921,9 @@
   </si>
   <si>
     <t xml:space="preserve">21856.330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22190.51953125</t>
   </si>
 </sst>
 </file>
@@ -37930,6 +37933,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>45832.5625</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>22190.51953125</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>22190.51953125</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>22190.51953125</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>22190.51953125</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3924,6 +3924,9 @@
   </si>
   <si>
     <t xml:space="preserve">22190.51953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22237.740234375</t>
   </si>
 </sst>
 </file>
@@ -37959,6 +37962,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>45833.5625</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>22237.740234375</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>22237.740234375</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>22237.740234375</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>22237.740234375</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1306">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3927,6 +3927,9 @@
   </si>
   <si>
     <t xml:space="preserve">22237.740234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22447.2890625</t>
   </si>
 </sst>
 </file>
@@ -37988,6 +37991,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>45834.5625</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>22447.2890625</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>22447.2890625</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>22447.2890625</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>22447.2890625</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3930,6 +3930,9 @@
   </si>
   <si>
     <t xml:space="preserve">22447.2890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22534.19921875</t>
   </si>
 </sst>
 </file>
@@ -38017,6 +38020,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>45835.5625</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>22534.19921875</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>22534.19921875</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>22534.19921875</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>22534.19921875</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1308">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3933,6 +3933,9 @@
   </si>
   <si>
     <t xml:space="preserve">22534.19921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22679.009765625</t>
   </si>
 </sst>
 </file>
@@ -38046,6 +38049,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>45838.5625</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>22679.009765625</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>22679.009765625</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>22679.009765625</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>22679.009765625</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1309">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3936,6 +3936,9 @@
   </si>
   <si>
     <t xml:space="preserve">22679.009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22478.140625</t>
   </si>
 </sst>
 </file>
@@ -38075,6 +38078,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>45839.5625</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>22478.140625</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>22478.140625</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>22478.140625</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>22478.140625</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3939,6 +3939,9 @@
   </si>
   <si>
     <t xml:space="preserve">22478.140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22641.890625</t>
   </si>
 </sst>
 </file>
@@ -38104,6 +38107,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>45840.5625</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>22641.890625</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>22641.890625</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>22641.890625</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>22641.890625</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3942,6 +3942,9 @@
   </si>
   <si>
     <t xml:space="preserve">22641.890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22866.970703125</t>
   </si>
 </sst>
 </file>
@@ -38133,6 +38136,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>45841.5625</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>22866.970703125</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>22866.970703125</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>22866.970703125</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>22866.970703125</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3945,6 +3945,9 @@
   </si>
   <si>
     <t xml:space="preserve">22866.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22685.5703125</t>
   </si>
 </sst>
 </file>
@@ -38162,6 +38165,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45845.5625</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>22685.5703125</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>22685.5703125</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>22685.5703125</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>22685.5703125</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3948,6 +3948,9 @@
   </si>
   <si>
     <t xml:space="preserve">22685.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22864.91015625</t>
   </si>
 </sst>
 </file>
@@ -38191,6 +38194,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45847.5625</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>22864.91015625</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>22864.91015625</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>22864.91015625</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>22864.91015625</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3951,6 +3951,9 @@
   </si>
   <si>
     <t xml:space="preserve">22864.91015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22829.259765625</t>
   </si>
 </sst>
 </file>
@@ -38220,6 +38223,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45848.5625</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>22829.259765625</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>22829.259765625</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>22829.259765625</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>22829.259765625</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1315">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3954,6 +3954,9 @@
   </si>
   <si>
     <t xml:space="preserve">22829.259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22780.599609375</t>
   </si>
 </sst>
 </file>
@@ -38249,6 +38252,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>45849.5625</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>22780.599609375</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>22780.599609375</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>22780.599609375</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>22780.599609375</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3957,6 +3957,9 @@
   </si>
   <si>
     <t xml:space="preserve">22780.599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22855.630859375</t>
   </si>
 </sst>
 </file>
@@ -38278,6 +38281,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>45852.5625</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>22855.630859375</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>22855.630859375</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>22855.630859375</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>22855.630859375</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3960,6 +3960,9 @@
   </si>
   <si>
     <t xml:space="preserve">22855.630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22884.58984375</t>
   </si>
 </sst>
 </file>
@@ -38307,6 +38310,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>45853.5625</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>22884.58984375</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>22884.58984375</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>22884.58984375</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>22884.58984375</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3963,6 +3963,9 @@
   </si>
   <si>
     <t xml:space="preserve">22884.58984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22907.970703125</t>
   </si>
 </sst>
 </file>
@@ -38336,6 +38339,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>45854.5625</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>22907.970703125</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>22907.970703125</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>22907.970703125</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>22907.970703125</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3966,6 +3966,9 @@
   </si>
   <si>
     <t xml:space="preserve">22907.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23081.05078125</t>
   </si>
 </sst>
 </file>
@@ -38365,6 +38368,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>45855.5625</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>23081.05078125</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>23081.05078125</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>23081.05078125</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>23081.05078125</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1320">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3969,6 +3969,9 @@
   </si>
   <si>
     <t xml:space="preserve">23081.05078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23065.470703125</t>
   </si>
 </sst>
 </file>
@@ -38394,6 +38397,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>45856.5625</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>23065.470703125</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>23065.470703125</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>23065.470703125</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>23065.470703125</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3972,6 +3972,9 @@
   </si>
   <si>
     <t xml:space="preserve">23065.470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23180.060546875</t>
   </si>
 </sst>
 </file>
@@ -38423,6 +38426,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45859.5625</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>23180.060546875</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>23180.060546875</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>23180.060546875</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>23180.060546875</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1322">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3975,6 +3975,9 @@
   </si>
   <si>
     <t xml:space="preserve">23180.060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23063.580078125</t>
   </si>
 </sst>
 </file>
@@ -38452,6 +38455,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45860.5625</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>23063.580078125</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>23063.580078125</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>23063.580078125</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>23063.580078125</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1323">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3978,6 +3978,9 @@
   </si>
   <si>
     <t xml:space="preserve">23063.580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23162.41015625</t>
   </si>
 </sst>
 </file>
@@ -38481,6 +38484,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45861.5625</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>23162.41015625</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>23162.41015625</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>23162.41015625</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>23162.41015625</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3981,6 +3981,9 @@
   </si>
   <si>
     <t xml:space="preserve">23162.41015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23219.859375</t>
   </si>
 </sst>
 </file>
@@ -38510,6 +38513,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45862.5625</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>23219.859375</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>23219.859375</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>23219.859375</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>23219.859375</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3984,6 +3984,9 @@
   </si>
   <si>
     <t xml:space="preserve">23219.859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23272.25</t>
   </si>
 </sst>
 </file>
@@ -38539,6 +38542,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45863.5625</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>23272.25</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>23272.25</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>23272.25</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>23272.25</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1326">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3987,6 +3987,9 @@
   </si>
   <si>
     <t xml:space="preserve">23272.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23356.26953125</t>
   </si>
 </sst>
 </file>
@@ -38568,6 +38571,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>45866.5625</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>23356.26953125</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>23356.26953125</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>23356.26953125</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>23356.26953125</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1327">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3990,6 +3990,9 @@
   </si>
   <si>
     <t xml:space="preserve">23356.26953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23308.30078125</t>
   </si>
 </sst>
 </file>
@@ -38597,6 +38600,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>45867.5625</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>23308.30078125</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>23308.30078125</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>23308.30078125</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>23308.30078125</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1328">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3993,6 +3993,9 @@
   </si>
   <si>
     <t xml:space="preserve">23308.30078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23345.41015625</t>
   </si>
 </sst>
 </file>
@@ -38626,6 +38629,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>45868.5625</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>23345.41015625</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>23345.41015625</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>23345.41015625</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>23345.41015625</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1329">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3996,6 +3996,9 @@
   </si>
   <si>
     <t xml:space="preserve">23345.41015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23218.119140625</t>
   </si>
 </sst>
 </file>
@@ -38655,6 +38658,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>45869.5625</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>23218.119140625</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>23218.119140625</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>23218.119140625</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>23218.119140625</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3999,6 +3999,9 @@
   </si>
   <si>
     <t xml:space="preserve">23218.119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22763.310546875</t>
   </si>
 </sst>
 </file>
@@ -38684,6 +38687,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>45870.5625</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>22763.310546875</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>22763.310546875</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>22763.310546875</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>22763.310546875</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1331">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4002,6 +4002,9 @@
   </si>
   <si>
     <t xml:space="preserve">22763.310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23188.609375</t>
   </si>
 </sst>
 </file>
@@ -38713,6 +38716,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>45873.5625</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>23188.609375</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>23188.609375</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>23188.609375</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>23188.609375</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1332">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4005,6 +4005,9 @@
   </si>
   <si>
     <t xml:space="preserve">23188.609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23018.560546875</t>
   </si>
 </sst>
 </file>
@@ -38742,6 +38745,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>45874.5625</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>23018.560546875</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>23018.560546875</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>23018.560546875</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>23018.560546875</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4008,6 +4008,9 @@
   </si>
   <si>
     <t xml:space="preserve">23018.560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23315.0390625</t>
   </si>
 </sst>
 </file>
@@ -38771,6 +38774,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45875.5625</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>23315.0390625</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>23315.0390625</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>23315.0390625</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>23315.0390625</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1334">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4011,6 +4011,9 @@
   </si>
   <si>
     <t xml:space="preserve">23315.0390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23389.529296875</t>
   </si>
 </sst>
 </file>
@@ -38800,6 +38803,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45876.5625</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>23389.529296875</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>23389.529296875</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>23389.529296875</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>23389.529296875</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1335">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4014,6 +4014,9 @@
   </si>
   <si>
     <t xml:space="preserve">23389.529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23611.26953125</t>
   </si>
 </sst>
 </file>
@@ -38829,6 +38832,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>45877.5625</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>23611.26953125</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>23611.26953125</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>23611.26953125</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>23611.26953125</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1336">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4017,6 +4017,9 @@
   </si>
   <si>
     <t xml:space="preserve">23611.26953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23839.19921875</t>
   </si>
 </sst>
 </file>
@@ -38858,6 +38861,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>45881.5625</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>23839.19921875</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>23839.19921875</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>23839.19921875</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>23839.19921875</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1337">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4020,6 +4020,9 @@
   </si>
   <si>
     <t xml:space="preserve">23839.19921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23849.0390625</t>
   </si>
 </sst>
 </file>
@@ -38887,6 +38890,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>45882.5625</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>23849.0390625</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>23849.0390625</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>23849.0390625</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>23849.0390625</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1338">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4023,6 +4023,9 @@
   </si>
   <si>
     <t xml:space="preserve">23849.0390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23832.439453125</t>
   </si>
 </sst>
 </file>
@@ -38916,6 +38919,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>45883.5625</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>23832.439453125</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>23832.439453125</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>23832.439453125</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>23832.439453125</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1339">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4026,6 +4026,9 @@
   </si>
   <si>
     <t xml:space="preserve">23832.439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23712.0703125</t>
   </si>
 </sst>
 </file>
@@ -38945,6 +38948,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>45884.5625</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>23712.0703125</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>23712.0703125</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>23712.0703125</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>23712.0703125</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1340">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4029,6 +4029,9 @@
   </si>
   <si>
     <t xml:space="preserve">23712.0703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23384.76953125</t>
   </si>
 </sst>
 </file>
@@ -38974,6 +38977,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>45888.5625</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>23384.76953125</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>23384.76953125</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>23384.76953125</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>23384.76953125</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1341">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4032,6 +4032,9 @@
   </si>
   <si>
     <t xml:space="preserve">23384.76953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23249.5703125</t>
   </si>
 </sst>
 </file>
@@ -39003,6 +39006,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>45889.5625</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>23249.5703125</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>23249.5703125</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>23249.5703125</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>23249.5703125</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4035,6 +4035,9 @@
   </si>
   <si>
     <t xml:space="preserve">23249.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23498.119140625</t>
   </si>
 </sst>
 </file>
@@ -39032,6 +39035,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>45891.5625</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>23498.119140625</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>23498.119140625</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>23498.119140625</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>23498.119140625</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1343">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4038,6 +4038,9 @@
   </si>
   <si>
     <t xml:space="preserve">23498.119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23425.599609375</t>
   </si>
 </sst>
 </file>
@@ -39061,6 +39064,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>45894.5625</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>23425.599609375</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>23425.599609375</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>23425.599609375</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>23425.599609375</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1344">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4041,6 +4041,9 @@
   </si>
   <si>
     <t xml:space="preserve">23425.599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23525.2890625</t>
   </si>
 </sst>
 </file>
@@ -39090,6 +39093,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>45895.5625</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>23525.2890625</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>23525.2890625</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>23525.2890625</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>23525.2890625</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1345">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4044,6 +4044,9 @@
   </si>
   <si>
     <t xml:space="preserve">23525.2890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23565.849609375</t>
   </si>
 </sst>
 </file>
@@ -39119,6 +39122,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>45896.5625</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>23565.849609375</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>23565.849609375</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>23565.849609375</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>23565.849609375</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1346">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4047,6 +4047,9 @@
   </si>
   <si>
     <t xml:space="preserve">23565.849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23703.44921875</t>
   </si>
 </sst>
 </file>
@@ -39148,6 +39151,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>45897.5625</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>23703.44921875</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>23703.44921875</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>23703.44921875</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>23703.44921875</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1347">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4050,6 +4050,9 @@
   </si>
   <si>
     <t xml:space="preserve">23703.44921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23231.109375</t>
   </si>
 </sst>
 </file>
@@ -39177,6 +39180,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>45902.5625</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>23231.109375</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>23231.109375</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>23231.109375</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>23231.109375</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1348">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4053,6 +4053,9 @@
   </si>
   <si>
     <t xml:space="preserve">23231.109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23414.83984375</t>
   </si>
 </sst>
 </file>
@@ -39206,6 +39209,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>45903.5625</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>23414.83984375</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>23414.83984375</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>23414.83984375</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>23414.83984375</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1349">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4056,6 +4056,9 @@
   </si>
   <si>
     <t xml:space="preserve">23414.83984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23633.009765625</t>
   </si>
 </sst>
 </file>
@@ -39235,6 +39238,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>45904.5625</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>23633.009765625</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>23633.009765625</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>23633.009765625</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>23633.009765625</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1350">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4059,6 +4059,9 @@
   </si>
   <si>
     <t xml:space="preserve">23633.009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23762.30078125</t>
   </si>
 </sst>
 </file>
@@ -39264,6 +39267,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>45908.5625</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>23762.30078125</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>23762.30078125</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>23762.30078125</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>23762.30078125</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1351">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4062,6 +4062,9 @@
   </si>
   <si>
     <t xml:space="preserve">23762.30078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23839.80078125</t>
   </si>
 </sst>
 </file>
@@ -39293,6 +39296,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>45909.5625</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>23839.80078125</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>23839.80078125</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>23839.80078125</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>23839.80078125</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1352">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4065,6 +4065,9 @@
   </si>
   <si>
     <t xml:space="preserve">23839.80078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23849.26953125</t>
   </si>
 </sst>
 </file>
@@ -39322,6 +39325,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>45910.5625</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>23849.26953125</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>23849.26953125</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>23849.26953125</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>23849.26953125</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1353">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4068,6 +4068,9 @@
   </si>
   <si>
     <t xml:space="preserve">23849.26953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23992.560546875</t>
   </si>
 </sst>
 </file>
@@ -39351,6 +39354,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>45911.5625</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>23992.560546875</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>23992.560546875</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>23992.560546875</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>23992.560546875</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4071,6 +4071,9 @@
   </si>
   <si>
     <t xml:space="preserve">23992.560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24092.189453125</t>
   </si>
 </sst>
 </file>
@@ -39380,6 +39383,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>45912.5625</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>24092.189453125</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>24092.189453125</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>24092.189453125</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>24092.189453125</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1355">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4074,6 +4074,9 @@
   </si>
   <si>
     <t xml:space="preserve">24092.189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24293.779296875</t>
   </si>
 </sst>
 </file>
@@ -39409,6 +39412,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>45915.5625</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>24293.779296875</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>24293.779296875</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>24293.779296875</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>24293.779296875</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4077,6 +4077,9 @@
   </si>
   <si>
     <t xml:space="preserve">24293.779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24274.25</t>
   </si>
 </sst>
 </file>
@@ -39438,6 +39441,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>45916.5625</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>24274.25</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>24274.25</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>24274.25</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>24274.25</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1357">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4080,6 +4080,9 @@
   </si>
   <si>
     <t xml:space="preserve">24274.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24223.689453125</t>
   </si>
 </sst>
 </file>
@@ -39467,6 +39470,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>45917.5625</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>24223.689453125</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>24223.689453125</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>24223.689453125</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>24223.689453125</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1358">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4083,6 +4083,9 @@
   </si>
   <si>
     <t xml:space="preserve">24223.689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24454.890625</t>
   </si>
 </sst>
 </file>
@@ -39496,6 +39499,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>45918.5625</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>24454.890625</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>24454.890625</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>24454.890625</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>24454.890625</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1359">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4086,6 +4086,9 @@
   </si>
   <si>
     <t xml:space="preserve">24454.890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24761.0703125</t>
   </si>
 </sst>
 </file>
@@ -39525,6 +39528,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>45922.5625</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>24761.0703125</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>24761.0703125</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>24761.0703125</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>24761.0703125</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4089,6 +4089,9 @@
   </si>
   <si>
     <t xml:space="preserve">24761.0703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24580.169921875</t>
   </si>
 </sst>
 </file>
@@ -39554,6 +39557,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>45923.5625</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>24580.169921875</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>24580.169921875</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>24580.169921875</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>24580.169921875</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1361">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4092,6 +4092,9 @@
   </si>
   <si>
     <t xml:space="preserve">24580.169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24503.5703125</t>
   </si>
 </sst>
 </file>
@@ -39583,6 +39586,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>45924.5625</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>24503.5703125</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>24503.5703125</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>24503.5703125</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>24503.5703125</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4095,6 +4095,9 @@
   </si>
   <si>
     <t xml:space="preserve">24503.5703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24397.310546875</t>
   </si>
 </sst>
 </file>
@@ -39612,6 +39615,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>45925.5625</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>24397.310546875</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>24397.310546875</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>24397.310546875</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>24397.310546875</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1363">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4098,6 +4098,9 @@
   </si>
   <si>
     <t xml:space="preserve">24397.310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24503.849609375</t>
   </si>
 </sst>
 </file>
@@ -39641,6 +39644,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>45926.5625</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>24503.849609375</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>24503.849609375</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>24503.849609375</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>24503.849609375</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1364">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4101,6 +4101,9 @@
   </si>
   <si>
     <t xml:space="preserve">24503.849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24679.990234375</t>
   </si>
 </sst>
 </file>
@@ -39670,6 +39673,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>45930.5625</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>24679.990234375</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>24679.990234375</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>24679.990234375</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>24679.990234375</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1366">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4104,6 +4104,12 @@
   </si>
   <si>
     <t xml:space="preserve">24679.990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24978.560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24840.23046875</t>
   </si>
 </sst>
 </file>
@@ -39699,6 +39705,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>45936.5625</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>24978.560546875</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>24978.560546875</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>24978.560546875</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>24978.560546875</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>45937.5625</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>24840.23046875</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>24840.23046875</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>24840.23046875</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>24840.23046875</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/NDX.xlsx
+++ b/data/NDX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1367">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -4110,6 +4110,9 @@
   </si>
   <si>
     <t xml:space="preserve">24840.23046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25136.619140625</t>
   </si>
 </sst>
 </file>
@@ -39757,6 +39760,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>45938.5625</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>25136.619140625</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>25136.619140625</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>25136.619140625</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>25136.619140625</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
